--- a/natmiOut/OldD4/LR-pairs_lrc2p/Wnt1-Lrp6.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Wnt1-Lrp6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Lrp6</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.234995384392146</v>
+        <v>0.01948966666666667</v>
       </c>
       <c r="H2">
-        <v>0.234995384392146</v>
+        <v>0.058469</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.6108647808766</v>
+        <v>13.18802033333333</v>
       </c>
       <c r="N2">
-        <v>12.6108647808766</v>
+        <v>39.564061</v>
       </c>
       <c r="O2">
-        <v>0.1370963410575929</v>
+        <v>0.1333092666742473</v>
       </c>
       <c r="P2">
-        <v>0.1370963410575929</v>
+        <v>0.1413743409290003</v>
       </c>
       <c r="Q2">
-        <v>2.963495016699473</v>
+        <v>0.2570301202898889</v>
       </c>
       <c r="R2">
-        <v>2.963495016699473</v>
+        <v>2.313271082609</v>
       </c>
       <c r="S2">
-        <v>0.1370963410575929</v>
+        <v>0.009459708813948867</v>
       </c>
       <c r="T2">
-        <v>0.1370963410575929</v>
+        <v>0.010032011519651</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.234995384392146</v>
+        <v>0.01948966666666667</v>
       </c>
       <c r="H3">
-        <v>0.234995384392146</v>
+        <v>0.058469</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>30.0852872308812</v>
+        <v>31.845132</v>
       </c>
       <c r="N3">
-        <v>30.0852872308812</v>
+        <v>95.53539599999999</v>
       </c>
       <c r="O3">
-        <v>0.3270658175064364</v>
+        <v>0.3219020813407859</v>
       </c>
       <c r="P3">
-        <v>0.3270658175064364</v>
+        <v>0.3413768279472386</v>
       </c>
       <c r="Q3">
-        <v>7.069903637369049</v>
+        <v>0.6206510076359999</v>
       </c>
       <c r="R3">
-        <v>7.069903637369049</v>
+        <v>5.585859068724</v>
       </c>
       <c r="S3">
-        <v>0.3270658175064364</v>
+        <v>0.02284237271763622</v>
       </c>
       <c r="T3">
-        <v>0.3270658175064364</v>
+        <v>0.02422431289867894</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -661,49 +661,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.234995384392146</v>
+        <v>0.01948966666666667</v>
       </c>
       <c r="H4">
-        <v>0.234995384392146</v>
+        <v>0.058469</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.9844279420197</v>
+        <v>17.06250533333333</v>
       </c>
       <c r="N4">
-        <v>14.9844279420197</v>
+        <v>51.187516</v>
       </c>
       <c r="O4">
-        <v>0.1629000294101368</v>
+        <v>0.172473958647377</v>
       </c>
       <c r="P4">
-        <v>0.1629000294101368</v>
+        <v>0.1829084566999494</v>
       </c>
       <c r="Q4">
-        <v>3.521271404131333</v>
+        <v>0.3325425414448889</v>
       </c>
       <c r="R4">
-        <v>3.521271404131333</v>
+        <v>2.992882873004</v>
       </c>
       <c r="S4">
-        <v>0.1629000294101368</v>
+        <v>0.01223885981445001</v>
       </c>
       <c r="T4">
-        <v>0.1629000294101368</v>
+        <v>0.0129792983125347</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -723,49 +723,49 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.234995384392146</v>
+        <v>0.01948966666666667</v>
       </c>
       <c r="H5">
-        <v>0.234995384392146</v>
+        <v>0.058469</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.6893814661567</v>
+        <v>19.90151933333333</v>
       </c>
       <c r="N5">
-        <v>17.6893814661567</v>
+        <v>59.70455799999999</v>
       </c>
       <c r="O5">
-        <v>0.1923063577891686</v>
+        <v>0.2011717362403738</v>
       </c>
       <c r="P5">
-        <v>0.1923063577891686</v>
+        <v>0.2133424204787085</v>
       </c>
       <c r="Q5">
-        <v>4.156922997298797</v>
+        <v>0.3878739779668888</v>
       </c>
       <c r="R5">
-        <v>4.156922997298797</v>
+        <v>3.490865801701999</v>
       </c>
       <c r="S5">
-        <v>0.1923063577891686</v>
+        <v>0.01427527203401898</v>
       </c>
       <c r="T5">
-        <v>0.1923063577891686</v>
+        <v>0.01513891138808201</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -785,49 +785,359 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.234995384392146</v>
+        <v>0.01948966666666667</v>
       </c>
       <c r="H6">
-        <v>0.234995384392146</v>
+        <v>0.058469</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.6154605365781</v>
+        <v>16.930832</v>
       </c>
       <c r="N6">
-        <v>16.6154605365781</v>
+        <v>33.861664</v>
       </c>
       <c r="O6">
-        <v>0.1806314542366653</v>
+        <v>0.171142957097216</v>
       </c>
       <c r="P6">
-        <v>0.1806314542366653</v>
+        <v>0.1209979539451033</v>
       </c>
       <c r="Q6">
-        <v>3.904556535645704</v>
+        <v>0.3299762720693333</v>
       </c>
       <c r="R6">
-        <v>3.904556535645704</v>
+        <v>1.979857632416</v>
       </c>
       <c r="S6">
-        <v>0.1806314542366653</v>
+        <v>0.01214441111324903</v>
       </c>
       <c r="T6">
-        <v>0.1806314542366653</v>
+        <v>0.008586090374356455</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.255165</v>
+      </c>
+      <c r="H7">
+        <v>0.7654949999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.9290393755066968</v>
+      </c>
+      <c r="J7">
+        <v>0.9290393755066969</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>13.18802033333333</v>
+      </c>
+      <c r="N7">
+        <v>39.564061</v>
+      </c>
+      <c r="O7">
+        <v>0.1333092666742473</v>
+      </c>
+      <c r="P7">
+        <v>0.1413743409290003</v>
+      </c>
+      <c r="Q7">
+        <v>3.365121208354999</v>
+      </c>
+      <c r="R7">
+        <v>30.28609087519499</v>
+      </c>
+      <c r="S7">
+        <v>0.1238495578602984</v>
+      </c>
+      <c r="T7">
+        <v>0.1313423294093493</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.255165</v>
+      </c>
+      <c r="H8">
+        <v>0.7654949999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.9290393755066968</v>
+      </c>
+      <c r="J8">
+        <v>0.9290393755066969</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>31.845132</v>
+      </c>
+      <c r="N8">
+        <v>95.53539599999999</v>
+      </c>
+      <c r="O8">
+        <v>0.3219020813407859</v>
+      </c>
+      <c r="P8">
+        <v>0.3413768279472386</v>
+      </c>
+      <c r="Q8">
+        <v>8.125763106779997</v>
+      </c>
+      <c r="R8">
+        <v>73.13186796101999</v>
+      </c>
+      <c r="S8">
+        <v>0.2990597086231497</v>
+      </c>
+      <c r="T8">
+        <v>0.3171525150485596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.255165</v>
+      </c>
+      <c r="H9">
+        <v>0.7654949999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.9290393755066968</v>
+      </c>
+      <c r="J9">
+        <v>0.9290393755066969</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>17.06250533333333</v>
+      </c>
+      <c r="N9">
+        <v>51.187516</v>
+      </c>
+      <c r="O9">
+        <v>0.172473958647377</v>
+      </c>
+      <c r="P9">
+        <v>0.1829084566999494</v>
+      </c>
+      <c r="Q9">
+        <v>4.35375417338</v>
+      </c>
+      <c r="R9">
+        <v>39.18378756042</v>
+      </c>
+      <c r="S9">
+        <v>0.1602350988329269</v>
+      </c>
+      <c r="T9">
+        <v>0.1699291583874147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.255165</v>
+      </c>
+      <c r="H10">
+        <v>0.7654949999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.9290393755066968</v>
+      </c>
+      <c r="J10">
+        <v>0.9290393755066969</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>19.90151933333333</v>
+      </c>
+      <c r="N10">
+        <v>59.70455799999999</v>
+      </c>
+      <c r="O10">
+        <v>0.2011717362403738</v>
+      </c>
+      <c r="P10">
+        <v>0.2133424204787085</v>
+      </c>
+      <c r="Q10">
+        <v>5.078171180689998</v>
+      </c>
+      <c r="R10">
+        <v>45.70354062620999</v>
+      </c>
+      <c r="S10">
+        <v>0.1868964642063548</v>
+      </c>
+      <c r="T10">
+        <v>0.1982035090906265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.255165</v>
+      </c>
+      <c r="H11">
+        <v>0.7654949999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.9290393755066968</v>
+      </c>
+      <c r="J11">
+        <v>0.9290393755066969</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>16.930832</v>
+      </c>
+      <c r="N11">
+        <v>33.861664</v>
+      </c>
+      <c r="O11">
+        <v>0.171142957097216</v>
+      </c>
+      <c r="P11">
+        <v>0.1209979539451033</v>
+      </c>
+      <c r="Q11">
+        <v>4.320155747279999</v>
+      </c>
+      <c r="R11">
+        <v>25.92093448368</v>
+      </c>
+      <c r="S11">
+        <v>0.158998545983967</v>
+      </c>
+      <c r="T11">
+        <v>0.1124118635707468</v>
       </c>
     </row>
   </sheetData>
